--- a/NGS/sample_annotation.xlsx
+++ b/NGS/sample_annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PE-Del-to-zx\PDel\NGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9305A2-F4E5-48EE-9B0B-CA93A5BBF72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95A1ABD-CF3B-442C-A54C-010BBD74D17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{030C3CBB-8B72-498D-B056-9EF514255768}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>PY5473-H50-01-1-15</t>
   </si>
@@ -59,12 +59,6 @@
     <t>0/1</t>
   </si>
   <si>
-    <t>PY4448-H50-20-47</t>
-  </si>
-  <si>
-    <t>PY4448-H50-21-1-45</t>
-  </si>
-  <si>
     <t>PE3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -117,6 +111,16 @@
   </si>
   <si>
     <t>PY5323-H50-2-4</t>
+  </si>
+  <si>
+    <t>Waxy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PY5466-H50-13-13</t>
+  </si>
+  <si>
+    <t>PY5466-H50-16-7</t>
   </si>
 </sst>
 </file>
@@ -494,7 +498,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -511,24 +515,24 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -539,16 +543,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -556,16 +560,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -573,16 +577,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
@@ -590,16 +594,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>3</v>
@@ -607,16 +611,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>3</v>
@@ -624,13 +628,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -641,13 +645,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -658,13 +662,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -675,13 +679,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
